--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848824.0009636412</v>
+        <v>868774.1100520974</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7611322.147876167</v>
+        <v>8254853.238856726</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>90.08497585695642</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>104.9398479215846</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -817,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>149.1427835161704</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -865,19 +867,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>148.0129566003206</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -902,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>96.66772454376203</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1111,16 +1113,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>237.1776800263922</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>34.53558964739524</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>127.2903542476916</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>77.94062456538812</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.779714936450969</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1379,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>208.0338114568144</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>319.0033075096875</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>74.07475062513807</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1612,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>199.1299417588312</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>74.0331530374213</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2248,13 +2250,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>2.738312485820725</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>221.6885862577654</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2530,19 +2532,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>104.9037564455521</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>175.120359078066</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>10.35273376234479</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.041219488028854</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3740,25 +3742,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>24.7796931628661</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3904,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>175.6665542587261</v>
+        <v>11.12043047005062</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>178.3385349199819</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>127.1775712042722</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>116.7770917239385</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1756.509303181903</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>1733.648977235607</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>1642.654052127571</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.677112275428</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>1090.853728201993</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1374.82761136252</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1374.82761136252</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N2" t="n">
-        <v>2048.629262475834</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>2048.629262475834</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>2014.544111950078</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>1657.054697076327</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.293724229584</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.614129437735</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1772.317263433029</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>326.146107551374</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K3" t="n">
-        <v>916.6310341197136</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="L3" t="n">
-        <v>916.6310341197136</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="M3" t="n">
-        <v>916.6310341197136</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="N3" t="n">
-        <v>1316.97146190481</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="O3" t="n">
-        <v>1316.97146190481</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1453.337234474817</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C4" t="n">
-        <v>1281.364671353733</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D4" t="n">
-        <v>1118.047898480504</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E4" t="n">
-        <v>951.8396926333571</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>2261.917905021356</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>2112.409868051335</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>2112.409868051335</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>1869.84597149714</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>1643.503203186883</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1023.668571419646</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>596.7678414329459</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>173.4752206179462</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>75.83105441212597</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2260.574204588538</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2260.574204588538</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1848.854205756285</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.516935711176</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>61.8952612336948</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>735.6969123470089</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.498563460323</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.498563460323</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>821.8609091830903</v>
+        <v>460.0356249219012</v>
       </c>
       <c r="C7" t="n">
-        <v>821.8609091830903</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="D7" t="n">
-        <v>658.544136309861</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>492.3359304627145</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>320.4741562372749</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1254.590774449351</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1254.590774449351</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.026877895156</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1012.026877895156</v>
+        <v>650.2015936339669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.468899141499</v>
+        <v>1803.735481715043</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.608573195203</v>
+        <v>1376.834751728343</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.356356420608</v>
+        <v>953.5421309133435</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.780241018899</v>
+        <v>527.5651910612011</v>
       </c>
       <c r="F8" t="n">
-        <v>756.6560592082994</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>728.2502693850971</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1402.051920498411</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1931.072927593931</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.293724229584</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.614129437735</v>
+        <v>1820.840307970875</v>
       </c>
       <c r="Y8" t="n">
-        <v>1368.276859392625</v>
+        <v>1819.543441966169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>728.2502693850971</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>874.5443996630665</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>702.5718365419825</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>702.5718365419825</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>536.363630694836</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>364.5018564693964</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1944.483684597984</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1664.299236098289</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1382.587768706318</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1107.735364878831</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1107.735364878831</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.3925965685726</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1945.093134423868</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>1518.192404437168</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.899783622168</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>668.9228437700257</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>668.9228437700257</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>264.5837813594743</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M11" t="n">
-        <v>2075.853571611725</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>2722.430913589148</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2364.941498715398</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2364.941498715398</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>2364.941498715398</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>2364.941498715398</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>221.066270324827</v>
       </c>
       <c r="M12" t="n">
-        <v>515.5329466256644</v>
+        <v>221.066270324827</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>221.066270324827</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1110.547548336299</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>468.6936525335126</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>468.6936525335126</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>468.6936525335126</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>468.6936525335126</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1143.364514679105</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>716.4637846924049</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4637846924049</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>290.4868448402625</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>290.4868448402625</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>290.4868448402625</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>583.4696253673028</v>
+        <v>1604.523619506848</v>
       </c>
       <c r="M14" t="n">
-        <v>1257.271276480617</v>
+        <v>2608.809720925906</v>
       </c>
       <c r="N14" t="n">
-        <v>1931.072927593931</v>
+        <v>3585.060779412607</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2364.941498715398</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>1968.550149015745</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1968.550149015745</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1563.212878970635</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>852.7780374834547</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>138.8060889717951</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.1138248592226</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>540.1412617381386</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1412617381386</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2207.934778154895</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.750329655199</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1646.038862263228</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1371.186458435741</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1128.622561881546</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>902.2797935712883</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5768,7 +5770,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>3438.986156927658</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>3267.013593806574</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>3103.696820933345</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>2937.488615086198</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>4372.911194331664</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>4098.058790504177</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>3855.494893949982</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>3629.152125639724</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.454412532011</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>985.454412532011</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6239,13 +6241,13 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C28" t="n">
-        <v>371.5828766281004</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D28" t="n">
-        <v>208.2661037548711</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>4786.385589586629</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>4511.533185759142</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>4334.643934165136</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>4108.301165854878</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2272.258433988306</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>2028.919086214205</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U31" t="n">
-        <v>1748.73463771451</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V31" t="n">
-        <v>1467.023170322539</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1192.170766495052</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.170766495052</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6709,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6783,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6941,7 +6943,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M35" t="n">
         <v>2011.818868109901</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3436.220184719758</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3264.247621598674</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4932.041138015431</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4651.856689515736</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4370.145222123764</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>4095.292818296277</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>3852.728921742082</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3626.386153431824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4834.951221791732</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4834.951221791732</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>907.1102945911382</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>882.0803014973341</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7876806823343</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>127.3841458631196</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>801.1857969764337</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>801.1857969764337</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>801.1857969764337</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>1474.987448089748</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>2148.789099203062</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2501.505342633781</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2144.015927760031</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2144.015927760031</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1732.295928927778</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1326.958658882668</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.051920498411</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.5997284915359</v>
+        <v>773.4362609458894</v>
       </c>
       <c r="C43" t="n">
-        <v>389.6271653704518</v>
+        <v>601.4636978248054</v>
       </c>
       <c r="D43" t="n">
-        <v>226.3103924972226</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E43" t="n">
-        <v>226.3103924972226</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.420681787208</v>
+        <v>2269.257214241562</v>
       </c>
       <c r="U43" t="n">
-        <v>1777.236233287513</v>
+        <v>1989.072765741866</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.524765895541</v>
+        <v>1707.361298349895</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.672362068054</v>
+        <v>1432.508894522408</v>
       </c>
       <c r="X43" t="n">
-        <v>978.1084655138595</v>
+        <v>1189.944997968213</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.7656972036016</v>
+        <v>963.6022296579551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.842360749525</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2326.039563889495</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.319565057242</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1508.982295012133</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1480.866774040094</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1363.360870557599</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1259.520912072884</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1154.818978345821</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.173148028725</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>967.1193762463289</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>913.7432830086385</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.82761136252</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N45" t="n">
-        <v>2048.629262475834</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="O45" t="n">
-        <v>2722.430913589148</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>2641.106666150403</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>2499.226730448081</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2314.458534367718</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2109.485395506984</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1912.964018340201</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>1749.486672106864</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>1609.793783460156</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.6293872400134</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="C46" t="n">
-        <v>220.6568241189294</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="D46" t="n">
-        <v>220.6568241189294</v>
+        <v>3155.89939208929</v>
       </c>
       <c r="E46" t="n">
-        <v>54.44861827178296</v>
+        <v>2989.691186242144</v>
       </c>
       <c r="F46" t="n">
-        <v>54.44861827178296</v>
+        <v>2989.691186242144</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.164188617424</v>
+        <v>4263.149786882017</v>
       </c>
       <c r="V46" t="n">
-        <v>1212.452721225452</v>
+        <v>3981.438319490046</v>
       </c>
       <c r="W46" t="n">
-        <v>937.6003173979655</v>
+        <v>3706.585915662559</v>
       </c>
       <c r="X46" t="n">
-        <v>809.138124262337</v>
+        <v>3464.022019108364</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.795355952079</v>
+        <v>3346.065360801356</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>325.1543486553775</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>177.0689530252724</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>690.4993855958451</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>397.1429374747948</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>571.7556129878624</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>487.0847740255431</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>463.2315577343861</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>550.7898391143972</v>
       </c>
       <c r="N11" t="n">
-        <v>690.388049074267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8772,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>137.2046649808205</v>
       </c>
       <c r="M12" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>572.6766960644611</v>
+        <v>835.2194834956113</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,19 +9005,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>213.8149241630077</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,16 +9178,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>59.38718324550895</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>206.9863830499477</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10355,16 +10357,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>106.3367244377138</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10589,10 +10591,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K38" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>103.0922095778457</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>107.1869721826501</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>571.7556129878624</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11379,19 +11381,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>488.8385263243292</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>86.8558832838911</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>73.42412869296908</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23418,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>198.029129164074</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>95.7597529818743</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>166.8728012589377</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>167.4048439973645</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>18.44967133088753</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>59.64236734312286</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>65.01789851058695</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>158.0809632437117</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>165.2116180018443</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>397.8520295239667</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>65.23940003763292</v>
+        <v>229.7855238263084</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.3113457286328</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26035,7 +26037,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>107.3022489032168</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>717822.7017859863</v>
+        <v>712922.3843964437</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>717822.7017859863</v>
+        <v>712922.3843964437</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>717822.7017859863</v>
+        <v>712922.3843964437</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481847.4439168569</v>
+        <v>706935.6360653639</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481847.4439168569</v>
+        <v>706935.6360653639</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717915.5305979848</v>
+        <v>717915.5305979847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717915.5305979848</v>
+        <v>717915.5305979847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717915.5305979847</v>
+        <v>717915.5305979846</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717915.5305979847</v>
+        <v>717915.5305979848</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717915.5305979848</v>
+        <v>717915.5305979847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481847.4439168568</v>
+        <v>706935.636065364</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481847.4439168569</v>
+        <v>706935.636065364</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.6008066979</v>
+      </c>
+      <c r="C2" t="n">
+        <v>349465.6008066979</v>
+      </c>
+      <c r="D2" t="n">
         <v>349465.6008066977</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.6008066978</v>
-      </c>
-      <c r="D2" t="n">
-        <v>349465.600806698</v>
-      </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705925</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="J2" t="n">
         <v>337218.2418824685</v>
@@ -26341,19 +26343,19 @@
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
+        <v>337218.2418824683</v>
+      </c>
+      <c r="M2" t="n">
         <v>337218.2418824685</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>337218.2418824684</v>
       </c>
-      <c r="N2" t="n">
-        <v>337218.2418824687</v>
-      </c>
       <c r="O2" t="n">
-        <v>226348.0749619345</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165649.9409281002</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="C4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>165649.9409281001</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="F4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
@@ -26445,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="M4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="N4" t="n">
-        <v>72380.62724986373</v>
-      </c>
       <c r="O4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.3388391534</v>
       </c>
       <c r="P4" t="n">
-        <v>48530.89063209081</v>
+        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119280.1937716415</v>
+        <v>-87006.44916136656</v>
       </c>
       <c r="C6" t="n">
-        <v>108807.1099920426</v>
+        <v>99398.28425337072</v>
       </c>
       <c r="D6" t="n">
-        <v>108807.1099920428</v>
+        <v>99398.28425337051</v>
       </c>
       <c r="E6" t="n">
-        <v>136436.2344432887</v>
+        <v>-22700.60689315427</v>
       </c>
       <c r="F6" t="n">
-        <v>136436.2344432887</v>
+        <v>184731.6807234067</v>
       </c>
       <c r="G6" t="n">
-        <v>23136.43163398905</v>
+        <v>179461.9303606935</v>
       </c>
       <c r="H6" t="n">
-        <v>187087.5524441751</v>
+        <v>187087.552444175</v>
       </c>
       <c r="I6" t="n">
-        <v>187087.5524441751</v>
+        <v>187087.552444175</v>
       </c>
       <c r="J6" t="n">
-        <v>9010.623955395335</v>
+        <v>41553.88250935858</v>
       </c>
       <c r="K6" t="n">
         <v>187087.5524441751</v>
       </c>
       <c r="L6" t="n">
-        <v>187087.5524441751</v>
+        <v>187087.5524441749</v>
       </c>
       <c r="M6" t="n">
+        <v>13957.06123853551</v>
+      </c>
+      <c r="N6" t="n">
         <v>187087.552444175</v>
       </c>
-      <c r="N6" t="n">
-        <v>187087.5524441753</v>
-      </c>
       <c r="O6" t="n">
-        <v>136436.2344432886</v>
+        <v>184731.6807234067</v>
       </c>
       <c r="P6" t="n">
-        <v>136436.2344432887</v>
+        <v>184731.6807234067</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>328.9747187498933</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>150.8315123879672</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>21.11005397370272</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>130.8813961177308</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>325.0494459098589</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>41.71667269165914</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>189.5437509797601</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>294.4268162059295</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.484594088494</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>286.8423062227546</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>155.2981118204437</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>653.1084262398209</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>375.3720962699661</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>465.7417458120015</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>513.3585762149654</v>
       </c>
       <c r="N11" t="n">
-        <v>653.1084262398209</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>114.689578266591</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>534.3646536318382</v>
+        <v>796.9074410629884</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>191.2998374487782</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,16 +35898,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>185.215541845119</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>428.7489458104537</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37075,16 +37077,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>83.23994392538586</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,10 +37311,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K38" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.67225009225919</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>534.3646536318383</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7417458120012</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>868774.1100520974</v>
+        <v>868056.1199372385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>104.9398479215846</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>207.0480212707258</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -819,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>149.1427835161704</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>218.9804750671993</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>30.59709888020232</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.77901812020955</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,13 +1104,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.53558964739524</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>77.94062456538812</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>319.0033075096875</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332236</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>74.07475062513807</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>206.8644797515789</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>2.738312485820725</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>13.1089358118668</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>175.120359078066</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2970,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1055716303386</v>
+        <v>140.0904125918745</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>4.378995526348093</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3246,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>180.2983300927849</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>56.37605845904569</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129223</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>311.0876633699169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3988,7 +3988,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>155.9291457253088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>116.7770917239385</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.018600382698</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4363,19 +4363,19 @@
         <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2014.544111950078</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1657.054697076327</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W2" t="n">
-        <v>1260.663347376674</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X2" t="n">
-        <v>1252.983752584825</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.68688658012</v>
+        <v>1286.583757836649</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>974.3357998282165</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O3" t="n">
-        <v>1525.001334812655</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7123380797772</v>
+        <v>789.6093675008983</v>
       </c>
       <c r="C4" t="n">
-        <v>288.0630618008172</v>
+        <v>617.6368043798143</v>
       </c>
       <c r="D4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>2003.718853404599</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875754</v>
+        <v>1723.534404904904</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.637375483783</v>
+        <v>1723.534404904904</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.784971656296</v>
+        <v>1448.682001077417</v>
       </c>
       <c r="X4" t="n">
-        <v>855.2210751021008</v>
+        <v>1206.118104523222</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.8783067918429</v>
+        <v>979.775336212964</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4612,7 +4612,7 @@
         <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.899316134963</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.0356249219012</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>288.0630618008172</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2100.751955815266</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1819.040488423295</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.2015936339669</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.735481715043</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.834751728343</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>953.5421309133435</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>527.5651910612011</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.245717477938</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>2224.911252462377</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1820.840307970875</v>
+        <v>955.1153740588603</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.543441966169</v>
+        <v>953.8185080541547</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5044,25 +5044,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1900.530441767978</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254679</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405491</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5080,13 +5080,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>107.5235878409019</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L12" t="n">
-        <v>221.066270324827</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M12" t="n">
-        <v>221.066270324827</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N12" t="n">
-        <v>221.066270324827</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="O12" t="n">
-        <v>1110.547548336299</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="P12" t="n">
-        <v>1826.745265374797</v>
+        <v>1414.206231447739</v>
       </c>
       <c r="Q12" t="n">
-        <v>1826.745265374797</v>
+        <v>1878.351708310519</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="H13" t="n">
         <v>199.8455131387141</v>
@@ -5226,25 +5226,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.258067403227</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
         <v>134.9738161355189</v>
@@ -5278,22 +5278,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1604.523619506848</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2608.809720925906</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3585.060779412607</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5323,7 +5323,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>852.7780374834547</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>1908.7645754595</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>607.228055098743</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>435.2554919776589</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5466,22 +5466,22 @@
         <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1266.300688675261</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1023.736792121067</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>797.3940238108087</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>1263.481480696891</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
         <v>1446.844867123559</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3438.986156927658</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C22" t="n">
-        <v>3267.013593806574</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D22" t="n">
-        <v>3103.696820933345</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E22" t="n">
-        <v>2937.488615086198</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V22" t="n">
-        <v>4372.911194331664</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W22" t="n">
-        <v>4098.058790504177</v>
+        <v>1537.443428141509</v>
       </c>
       <c r="X22" t="n">
-        <v>3855.494893949982</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="Y22" t="n">
-        <v>3629.152125639724</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4654.622661723635</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4654.622661723635</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4654.622661723635</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3918.135197142812</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>3746.162634021728</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D28" t="n">
-        <v>3582.845861148498</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E28" t="n">
-        <v>3416.637655301352</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F28" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>5068.0970569786</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>5068.0970569786</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4786.385589586629</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4511.533185759142</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4334.643934165136</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>4108.301165854878</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6551,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1447.551429799776</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1172.699025972289</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>1172.699025972289</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>946.3562576620313</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.5477476675582</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C34" t="n">
-        <v>516.5477476675582</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5477476675582</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5477476675582</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3436.220184719758</v>
+        <v>935.3163081599862</v>
       </c>
       <c r="C37" t="n">
-        <v>3264.247621598674</v>
+        <v>763.3437450389022</v>
       </c>
       <c r="D37" t="n">
-        <v>3100.930848725445</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4932.041138015431</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4651.856689515736</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>4370.145222123764</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W37" t="n">
-        <v>4095.292818296277</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X37" t="n">
-        <v>3852.728921742082</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y37" t="n">
-        <v>3626.386153431824</v>
+        <v>1125.482276872052</v>
       </c>
     </row>
     <row r="38">
@@ -7174,16 +7174,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
         <v>2988.069926596602</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,19 +7420,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4933.495569347233</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7444,19 +7444,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058034</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012924</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N42" t="n">
         <v>1908.7645754595</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.4362609458894</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>601.4636978248054</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>438.1469249515761</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
         <v>271.9387191044297</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>2269.257214241562</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.072765741866</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1707.361298349895</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.508894522408</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>1189.944997968213</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.6022296579551</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
         <v>837.1812570720355</v>
@@ -7648,28 +7648,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>372.9534210551046</v>
       </c>
       <c r="K44" t="n">
-        <v>1178.188711671385</v>
+        <v>1088.461729030604</v>
       </c>
       <c r="L44" t="n">
-        <v>2107.813759290661</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M44" t="n">
-        <v>2107.813759290661</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405491</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563419</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7681,19 +7681,19 @@
         <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>936.8757529618962</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>936.8757529618962</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>936.8757529618962</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.566858421002</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3155.89939208929</v>
+        <v>767.6724395326037</v>
       </c>
       <c r="C46" t="n">
-        <v>3155.89939208929</v>
+        <v>595.6998764115197</v>
       </c>
       <c r="D46" t="n">
-        <v>3155.89939208929</v>
+        <v>595.6998764115197</v>
       </c>
       <c r="E46" t="n">
-        <v>2989.691186242144</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F46" t="n">
-        <v>2989.691186242144</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>4263.149786882017</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>3981.438319490046</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>3706.585915662559</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>3464.022019108364</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>3346.065360801356</v>
+        <v>957.8384082446693</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7999,7 +7999,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,13 +8057,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8075,7 +8075,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>177.0689530252724</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8227,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>110.6369203512731</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800523</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>550.7898391143972</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>137.2046649808205</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>54.39298722139783</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>835.2194834956113</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,22 +9011,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>650.3413783255763</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9257,10 +9257,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P18" t="n">
-        <v>206.9863830499477</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>859.128966425699</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>374.0706084536725</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1027.220259954781</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,7 +10834,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>107.1869721826501</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>305.052763703884</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>814.0147147172921</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>73.42412869296908</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.11005397370357</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>198.029129164074</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>65.23940003763323</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>167.4048439973645</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>258.9949439773453</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>65.01789851058695</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>163.7887810877128</v>
+        <v>138.8039401261769</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>43.78101053437044</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>105.3075466854513</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.326677470262865</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.616978063366133</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>107.3022489032168</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717915.5305979847</v>
+        <v>717915.5305979846</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717915.5305979846</v>
+        <v>717915.5305979848</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706935.636065364</v>
+        <v>706935.6360653639</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>706935.636065364</v>
+        <v>706935.6360653639</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>349465.6008066979</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066977</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
+        <v>332061.4976705924</v>
+      </c>
+      <c r="F2" t="n">
         <v>332061.4976705925</v>
       </c>
-      <c r="F2" t="n">
-        <v>332061.4976705926</v>
-      </c>
       <c r="G2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="K2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="L2" t="n">
         <v>337218.2418824683</v>
       </c>
       <c r="M2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="N2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="O2" t="n">
         <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>332061.4976705926</v>
+        <v>332061.4976705925</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>182621.0655158991</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
         <v>182621.0655158991</v>
@@ -26432,34 +26432,34 @@
         <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="H4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="H4" t="n">
-        <v>72380.62724986371</v>
-      </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
+        <v>71271.33883915341</v>
+      </c>
+      <c r="P4" t="n">
         <v>71271.3388391534</v>
-      </c>
-      <c r="P4" t="n">
-        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87006.44916136656</v>
+        <v>-87006.44916136653</v>
       </c>
       <c r="C6" t="n">
-        <v>99398.28425337072</v>
+        <v>99398.28425337074</v>
       </c>
       <c r="D6" t="n">
-        <v>99398.28425337051</v>
+        <v>99398.28425337063</v>
       </c>
       <c r="E6" t="n">
-        <v>-22700.60689315427</v>
+        <v>-22773.12398955478</v>
       </c>
       <c r="F6" t="n">
-        <v>184731.6807234067</v>
+        <v>184659.1636270062</v>
       </c>
       <c r="G6" t="n">
-        <v>179461.9303606935</v>
+        <v>179410.8996985093</v>
       </c>
       <c r="H6" t="n">
-        <v>187087.552444175</v>
+        <v>187036.5217819907</v>
       </c>
       <c r="I6" t="n">
-        <v>187087.552444175</v>
+        <v>187036.5217819905</v>
       </c>
       <c r="J6" t="n">
-        <v>41553.88250935858</v>
+        <v>41502.85184717413</v>
       </c>
       <c r="K6" t="n">
-        <v>187087.5524441751</v>
+        <v>187036.5217819907</v>
       </c>
       <c r="L6" t="n">
-        <v>187087.5524441749</v>
+        <v>187036.5217819907</v>
       </c>
       <c r="M6" t="n">
-        <v>13957.06123853551</v>
+        <v>13906.03057635108</v>
       </c>
       <c r="N6" t="n">
-        <v>187087.552444175</v>
+        <v>187036.5217819907</v>
       </c>
       <c r="O6" t="n">
-        <v>184731.6807234067</v>
+        <v>184659.1636270063</v>
       </c>
       <c r="P6" t="n">
-        <v>184731.6807234067</v>
+        <v>184659.1636270062</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>150.8315123879672</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>185.3794149319307</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.11005397370272</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27551,7 +27551,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21.92547922915975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>350.504879224449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>201.033127513759</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5437509797601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9323154271056</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27909,16 +27909,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>152.6181964616707</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,25 +34777,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>155.2981118204437</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>158.2737632597932</v>
-      </c>
-      <c r="N6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>513.3585762149654</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>114.689578266591</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>30.72006782725369</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>796.9074410629884</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>627.1694886033541</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P18" t="n">
-        <v>185.215541845119</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>821.7380070696748</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>989.7889970553492</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.06229757805201</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>275.6328042182975</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>776.7350918828461</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
